--- a/document/registration.xlsx
+++ b/document/registration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worachit.pa\Desktop\event\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simple\Desktop\event\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB402176-F7F4-46D1-A790-19A1DFE43A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5486F1-5153-406A-83C4-6506176918A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{14E908CA-9823-4353-B910-0DCDECDF65EF}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{14E908CA-9823-4353-B910-0DCDECDF65EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="268">
   <si>
     <t>Bramantyo Wikantyoso</t>
   </si>
@@ -256,18 +256,623 @@
   </si>
   <si>
     <t>Speaker</t>
+  </si>
+  <si>
+    <t>CODE</t>
+  </si>
+  <si>
+    <t>E001</t>
+  </si>
+  <si>
+    <t>E002</t>
+  </si>
+  <si>
+    <t>E003</t>
+  </si>
+  <si>
+    <t>E004</t>
+  </si>
+  <si>
+    <t>E005</t>
+  </si>
+  <si>
+    <t>E006</t>
+  </si>
+  <si>
+    <t>E007</t>
+  </si>
+  <si>
+    <t>E008</t>
+  </si>
+  <si>
+    <t>E009</t>
+  </si>
+  <si>
+    <t>E010</t>
+  </si>
+  <si>
+    <t>E011</t>
+  </si>
+  <si>
+    <t>E012</t>
+  </si>
+  <si>
+    <t>E013</t>
+  </si>
+  <si>
+    <t>E014</t>
+  </si>
+  <si>
+    <t>E015</t>
+  </si>
+  <si>
+    <t>E016</t>
+  </si>
+  <si>
+    <t>E017</t>
+  </si>
+  <si>
+    <t>E018</t>
+  </si>
+  <si>
+    <t>E019</t>
+  </si>
+  <si>
+    <t>E020</t>
+  </si>
+  <si>
+    <t>E021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> G001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> G002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> G003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> G004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> G005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> G006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> G007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  B001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  B002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  B003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  B004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  B005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  C001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  D001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  D002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  D003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  D004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  D005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  D006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  D007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  D008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  D009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  D010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  D011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  D012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  D013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  D014</t>
+  </si>
+  <si>
+    <t>Pei Ling</t>
+  </si>
+  <si>
+    <t>devan_daniel@yahoo.com.my</t>
+  </si>
+  <si>
+    <t>iafniza@gmail.com</t>
+  </si>
+  <si>
+    <t>wmyusri@gmail.com</t>
+  </si>
+  <si>
+    <t>jeffersonsotto@cctchemicals.net</t>
+  </si>
+  <si>
+    <t>nathanaelquinones@cctchemicals.net</t>
+  </si>
+  <si>
+    <t>info@surencooke.com</t>
+  </si>
+  <si>
+    <t>rajitha@surencooke.com</t>
+  </si>
+  <si>
+    <t>srrao4@gmail.com</t>
+  </si>
+  <si>
+    <t>juhana.ismail@rentokil-initial.com</t>
+  </si>
+  <si>
+    <t>carol.lam@rentokil-initial.com</t>
+  </si>
+  <si>
+    <t>enquiry@servcare.com.sg</t>
+  </si>
+  <si>
+    <t>victor@ecospacepest.com.sg</t>
+  </si>
+  <si>
+    <t>kershing@cleansolutions.com.sg</t>
+  </si>
+  <si>
+    <t>guru@ipest.in</t>
+  </si>
+  <si>
+    <t>kiranpest8@gmail.com</t>
+  </si>
+  <si>
+    <t>shin@chunghsi.com.tw</t>
+  </si>
+  <si>
+    <t>satishtyagijpr@gmail.com</t>
+  </si>
+  <si>
+    <t>ruziyatul.aznieda@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  A015</t>
+  </si>
+  <si>
+    <t>kinpest.jb@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajesh Krish</t>
+  </si>
+  <si>
+    <t>RIDZUAN</t>
+  </si>
+  <si>
+    <t>Prafull Prabhakar Gurav</t>
+  </si>
+  <si>
+    <t>Amit</t>
+  </si>
+  <si>
+    <t>HUN YUEN</t>
+  </si>
+  <si>
+    <t>Kim Hon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B006 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> B011</t>
+  </si>
+  <si>
+    <t>needspestcontrol@rediffmail.com</t>
+  </si>
+  <si>
+    <t>ridzuan@entoworks.com</t>
+  </si>
+  <si>
+    <t>cleanpest@cleanpest.in</t>
+  </si>
+  <si>
+    <t>amithanamghar@yahoo.com</t>
+  </si>
+  <si>
+    <t>limhunyuen@yahoo.com</t>
+  </si>
+  <si>
+    <t>fongjac@pc.jaring.asia</t>
+  </si>
+  <si>
+    <t>SEYHA</t>
+  </si>
+  <si>
+    <t>HUOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ravi Shankar </t>
+  </si>
+  <si>
+    <t>Ankush</t>
+  </si>
+  <si>
+    <t>MUHAMMAD SYAZWAN</t>
+  </si>
+  <si>
+    <t>MOHD QHAIROL AF HAFIZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DO15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DO16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DO17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DO18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DO19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DO20</t>
+  </si>
+  <si>
+    <t>info@lpestcontrol.com</t>
+  </si>
+  <si>
+    <t>ravivyas@hotmail.com</t>
+  </si>
+  <si>
+    <t>info.bioideas@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT006</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT009</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT011</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT012</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> AT020</t>
+  </si>
+  <si>
+    <t>นางสาวศรัญญา   อาจหาญ</t>
+  </si>
+  <si>
+    <t>นางสาวอ้อมใจ   เหียดใส</t>
+  </si>
+  <si>
+    <t>นางพจนา   วีแอนเดน</t>
+  </si>
+  <si>
+    <t>นางสาวสุมาลี   ฉลวยเจริญวงศ์</t>
+  </si>
+  <si>
+    <t>นางสาวปัณรวีย์   บุญคง</t>
+  </si>
+  <si>
+    <t>นางสาวขวัญฤดี   ศรีกระทุม</t>
+  </si>
+  <si>
+    <t>นายสุชาติ   หงส์พิลา</t>
+  </si>
+  <si>
+    <t>นายณัฐพัชร์   แสนธรรมพล</t>
+  </si>
+  <si>
+    <t>นางจันทรา   ลีละยุทธโยธิน</t>
+  </si>
+  <si>
+    <t>นายสุธี   ลีละยุทธโยธิน</t>
+  </si>
+  <si>
+    <t>นางภัทรา   ลีละยุทธโยธิน</t>
+  </si>
+  <si>
+    <t>นายดนัย   พัชรพจนากรณ์</t>
+  </si>
+  <si>
+    <t>นางสาวปุณิกา   อินทสุวรรณ์</t>
+  </si>
+  <si>
+    <t>นางสาวจินตนา   วงศ์ภิญ</t>
+  </si>
+  <si>
+    <t>นางสาวนงนภัส   ปัญญายิ่ง</t>
+  </si>
+  <si>
+    <t>นายธีธัช   เผือกโสภา</t>
+  </si>
+  <si>
+    <t>นางสาวละอองทิพย์   ใจสุข</t>
+  </si>
+  <si>
+    <t>นางสาวอุบลวรรณ   เนตรวงศ์</t>
+  </si>
+  <si>
+    <t>นางสาวศศิธร   โพธิ์ธานี</t>
+  </si>
+  <si>
+    <t>นางสาวกานต์สิริ   กรรมใจ</t>
+  </si>
+  <si>
+    <t>chemin_1980@hotmail.com</t>
+  </si>
+  <si>
+    <t>chemin.saleservice@gmail.com</t>
+  </si>
+  <si>
+    <t>potjana@vpmc.co.th</t>
+  </si>
+  <si>
+    <t>sumalee.th2024@gmail.com</t>
+  </si>
+  <si>
+    <t>Chantra.lee@gmail.com</t>
+  </si>
+  <si>
+    <t>Sutee@kingservice.co.th</t>
+  </si>
+  <si>
+    <t>Patra@kingservice.co.th</t>
+  </si>
+  <si>
+    <t>Libra@kingservice.co.th</t>
+  </si>
+  <si>
+    <t>Punika@kingservice.co.th</t>
+  </si>
+  <si>
+    <t>Jintana@kingservice.co.th</t>
+  </si>
+  <si>
+    <t>Nongnaphat@kingservice.co.th</t>
+  </si>
+  <si>
+    <t>Thithat.ph@gmail.com</t>
+  </si>
+  <si>
+    <t>Laorngtip@kingservice.co.th</t>
+  </si>
+  <si>
+    <t>Ubonwan@kingservice.co.th</t>
+  </si>
+  <si>
+    <t>Sasithon@kingservice.co.th</t>
+  </si>
+  <si>
+    <t>Kansiri@kingservice.co.th</t>
+  </si>
+  <si>
+    <t>บริษัท เคมอิน อินคอร์โปเรชั่น จำกัด</t>
+  </si>
+  <si>
+    <t>บริษัท วีพี มอสคีโต คอนโทรล จำกัด</t>
+  </si>
+  <si>
+    <t>บริษัท เทมโป-เอเชีย จำกัด</t>
+  </si>
+  <si>
+    <t>บริษัท คิงส์ เซอร์วิส เซ็นเตอร์ จำกัด</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Thai Member</t>
+  </si>
+  <si>
+    <t>COUNTRY</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -288,15 +893,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{F3608C08-1E48-42A6-84F0-4F31B1756AB8}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{2CD6B598-AD7A-4614-AE40-A31E3EA68439}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -608,820 +1218,2265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53E8B81C-C760-432C-BBDC-1B6D586225E3}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="G8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="G9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="G10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="G11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="G12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="G13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="G14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="G15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="G16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="G17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="G18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="G19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="G20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="G21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="G22" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="G23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="G24" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="G25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C26" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="G26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="G27" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="G28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="G29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="C30" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="1" t="s">
+      <c r="C31" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C32" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="C33" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:8">
+      <c r="A34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="C34" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C35" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:8">
+      <c r="A36" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="C36" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:8">
+      <c r="A37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:8">
+      <c r="A38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C38" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:8">
+      <c r="A39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C39" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C40" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:8">
+      <c r="A41" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C41" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:8">
+      <c r="A42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="1" t="s">
+      <c r="C42" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="1" t="s">
+      <c r="C43" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:8">
+      <c r="A44" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B44" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="C44" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:8">
+      <c r="A45" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="1" t="s">
+      <c r="C45" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C46" t="s">
-        <v>72</v>
-      </c>
-      <c r="D46" s="1" t="s">
+      <c r="C46" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C47" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="C47" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:8">
+      <c r="A48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B48" t="s">
-        <v>65</v>
-      </c>
-      <c r="C48" t="s">
-        <v>72</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="C48" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:8">
+      <c r="A49" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="C49" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:8">
+      <c r="A50" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B50" t="s">
-        <v>65</v>
-      </c>
-      <c r="C50" t="s">
-        <v>72</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="C50" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B51" t="s">
-        <v>65</v>
-      </c>
-      <c r="C51" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C51" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:8">
+      <c r="A52" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B52" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" t="s">
-        <v>72</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="C52" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:8">
+      <c r="A53" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B53" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" t="s">
-        <v>72</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="C53" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:8">
+      <c r="A54" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" t="s">
-        <v>72</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="C54" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:8">
+      <c r="A55" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" t="s">
-        <v>72</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="C55" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:8">
+      <c r="A56" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="C56" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:8">
+      <c r="A57" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B57" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="C57" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:8">
+      <c r="A58" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="C58" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:8">
+      <c r="A59" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" t="s">
-        <v>72</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="C59" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:8">
+      <c r="A60" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C60" t="s">
-        <v>72</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="C60" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:8">
+      <c r="A61" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B61" t="s">
-        <v>65</v>
-      </c>
-      <c r="C61" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="C61" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:8">
+      <c r="A62" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" t="s">
-        <v>72</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="C62" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:8">
+      <c r="A63" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C63" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="C63" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" s="2" t="s">
         <v>68</v>
       </c>
     </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D48" r:id="rId1" xr:uid="{025F6359-265D-43ED-B1D7-C39762047A16}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>